--- a/export/SMB_BOM.xlsx
+++ b/export/SMB_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Item #</t>
   </si>
@@ -69,18 +69,6 @@
     <t>Y dimension (in)</t>
   </si>
   <si>
-    <t>File structure</t>
-  </si>
-  <si>
-    <t>printer</t>
-  </si>
-  <si>
-    <t>top folder:</t>
-  </si>
-  <si>
-    <t>Assembly drawing of the entire printer. For reference only.</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -115,18 +103,6 @@
   </si>
   <si>
     <t>Powder coat</t>
-  </si>
-  <si>
-    <t>aluminum</t>
-  </si>
-  <si>
-    <t>steel</t>
-  </si>
-  <si>
-    <t>Files for aluminum parts</t>
-  </si>
-  <si>
-    <t>Files for steel parts, focus on the reuse of scrap area for smaller pieces for cost reduction</t>
   </si>
   <si>
     <t>frame_front</t>
@@ -218,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -247,16 +223,10 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AH43"/>
+  <dimension ref="C1:AH38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,168 +570,433 @@
   <sheetData>
     <row r="1" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="J4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5"/>
+      <c r="AF5"/>
+    </row>
+    <row r="6" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3">
+        <v>144.47999999999999</v>
+      </c>
+      <c r="K6" s="3">
+        <v>234.48</v>
+      </c>
+      <c r="L6" s="5">
+        <f>J6/25.4</f>
+        <v>5.688188976377953</v>
+      </c>
+      <c r="M6" s="5">
+        <f>K6/25.4</f>
+        <v>9.2314960629921252</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="R6" s="7">
+        <f t="shared" ref="R6:R14" si="0">L6*M6</f>
+        <v>52.510494140988278</v>
+      </c>
+      <c r="S6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="12"/>
+    </row>
+    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="J7" s="3">
+        <v>234</v>
+      </c>
+      <c r="K7" s="3">
+        <v>144.47999999999999</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" ref="L7:M14" si="1">J7/25.4</f>
+        <v>9.2125984251968518</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="1"/>
+        <v>5.688188976377953</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="0"/>
+        <v>52.403000806001621</v>
+      </c>
+      <c r="S7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="12"/>
+    </row>
+    <row r="8" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="3">
+        <v>345.26</v>
+      </c>
+      <c r="K8" s="3">
+        <v>399.24</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>13.592913385826773</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="1"/>
+        <v>15.718110236220474</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="0"/>
+        <v>213.6549110298221</v>
+      </c>
+      <c r="S8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="12"/>
     </row>
     <row r="9" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="J9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="15"/>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="13">
+        <v>345.26</v>
+      </c>
+      <c r="K9" s="13">
+        <v>399.24</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>13.592913385826773</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>15.718110236220474</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="0"/>
+        <v>213.6549110298221</v>
+      </c>
+      <c r="S9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="12"/>
     </row>
     <row r="10" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="3">
+        <v>387.24</v>
+      </c>
+      <c r="K10" s="3">
+        <v>607.01</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="1"/>
+        <v>15.245669291338585</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="1"/>
+        <v>23.898031496062995</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10"/>
-      <c r="AF10"/>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="0"/>
+        <v>364.34148490296991</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="12"/>
     </row>
     <row r="11" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J11" s="3">
-        <v>144.47999999999999</v>
+        <v>217.24</v>
       </c>
       <c r="K11" s="3">
-        <v>234.48</v>
+        <v>256.07</v>
       </c>
       <c r="L11" s="5">
-        <f>J11/25.4</f>
-        <v>5.688188976377953</v>
+        <f t="shared" si="1"/>
+        <v>8.5527559055118125</v>
       </c>
       <c r="M11" s="5">
-        <f>K11/25.4</f>
-        <v>9.2314960629921252</v>
-      </c>
-      <c r="O11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+        <f t="shared" si="1"/>
+        <v>10.081496062992127</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
         <v>22</v>
       </c>
       <c r="R11" s="7">
-        <f>L11*M11</f>
-        <v>52.510494140988278</v>
+        <f t="shared" si="0"/>
+        <v>86.22457498915</v>
       </c>
       <c r="S11" s="8"/>
       <c r="U11" s="8"/>
@@ -778,54 +1013,54 @@
       <c r="AF11" s="8"/>
       <c r="AG11" s="12"/>
     </row>
-    <row r="12" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J12" s="3">
-        <v>234</v>
+        <v>225.62</v>
       </c>
       <c r="K12" s="3">
-        <v>144.47999999999999</v>
+        <v>196</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12:M19" si="0">J12/25.4</f>
-        <v>9.2125984251968518</v>
+        <f t="shared" si="1"/>
+        <v>8.8826771653543322</v>
       </c>
       <c r="M12" s="5">
+        <f t="shared" si="1"/>
+        <v>7.7165354330708666</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="7">
         <f t="shared" si="0"/>
-        <v>5.688188976377953</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="7">
-        <f>L12*M12</f>
-        <v>52.403000806001621</v>
+        <v>68.543493086986189</v>
       </c>
       <c r="S12" s="8"/>
       <c r="U12" s="8"/>
@@ -844,52 +1079,52 @@
     </row>
     <row r="13" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J13" s="3">
-        <v>345.26</v>
+        <v>383</v>
       </c>
       <c r="K13" s="3">
-        <v>399.24</v>
+        <v>602.76</v>
       </c>
       <c r="L13" s="5">
+        <f t="shared" si="1"/>
+        <v>15.078740157480317</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="1"/>
+        <v>23.730708661417324</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="7">
         <f t="shared" si="0"/>
-        <v>13.592913385826773</v>
-      </c>
-      <c r="M13" s="5">
-        <f t="shared" si="0"/>
-        <v>15.718110236220474</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="7">
-        <f>L13*M13</f>
-        <v>213.6549110298221</v>
+        <v>357.82918965837939</v>
       </c>
       <c r="S13" s="8"/>
       <c r="U13" s="8"/>
@@ -907,53 +1142,53 @@
       <c r="AG13" s="12"/>
     </row>
     <row r="14" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C14" s="4">
-        <v>4</v>
+      <c r="C14" s="11">
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" s="14">
-        <v>345.26</v>
-      </c>
-      <c r="K14" s="14">
-        <v>399.24</v>
+        <v>20</v>
+      </c>
+      <c r="J14" s="3">
+        <v>30</v>
+      </c>
+      <c r="K14" s="3">
+        <v>85.22</v>
       </c>
       <c r="L14" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1811023622047245</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3551181102362206</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="7">
         <f t="shared" si="0"/>
-        <v>13.592913385826773</v>
-      </c>
-      <c r="M14" s="5">
-        <f t="shared" si="0"/>
-        <v>15.718110236220474</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="7">
-        <f>L14*M14</f>
-        <v>213.6549110298221</v>
+        <v>3.9627379254758517</v>
       </c>
       <c r="S14" s="8"/>
       <c r="U14" s="8"/>
@@ -971,54 +1206,20 @@
       <c r="AG14" s="12"/>
     </row>
     <row r="15" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C15" s="4">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J15" s="3">
-        <v>387.24</v>
-      </c>
-      <c r="K15" s="3">
-        <v>607.01</v>
-      </c>
-      <c r="L15" s="5">
-        <f t="shared" si="0"/>
-        <v>15.245669291338585</v>
-      </c>
-      <c r="M15" s="5">
-        <f t="shared" si="0"/>
-        <v>23.898031496062995</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="7">
-        <f>L15*M15</f>
-        <v>364.34148490296991</v>
-      </c>
+      <c r="C15" s="11"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
@@ -1035,54 +1236,20 @@
       <c r="AG15" s="12"/>
     </row>
     <row r="16" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C16" s="4">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="3">
-        <v>217.24</v>
-      </c>
-      <c r="K16" s="3">
-        <v>256.07</v>
-      </c>
-      <c r="L16" s="5">
-        <f t="shared" si="0"/>
-        <v>8.5527559055118125</v>
-      </c>
-      <c r="M16" s="5">
-        <f t="shared" si="0"/>
-        <v>10.081496062992127</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="7">
-        <f>L16*M16</f>
-        <v>86.22457498915</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -1099,54 +1266,16 @@
       <c r="AG16" s="12"/>
     </row>
     <row r="17" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="4">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="3">
-        <v>225.62</v>
-      </c>
-      <c r="K17" s="3">
-        <v>196</v>
-      </c>
-      <c r="L17" s="5">
-        <f t="shared" si="0"/>
-        <v>8.8826771653543322</v>
-      </c>
-      <c r="M17" s="5">
-        <f t="shared" si="0"/>
-        <v>7.7165354330708666</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="7">
-        <f>L17*M17</f>
-        <v>68.543493086986189</v>
-      </c>
+      <c r="C17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
@@ -1162,54 +1291,19 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="12"/>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C18" s="4">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="3">
-        <v>383</v>
-      </c>
-      <c r="K18" s="3">
-        <v>602.76</v>
-      </c>
-      <c r="L18" s="5">
-        <f t="shared" si="0"/>
-        <v>15.078740157480317</v>
-      </c>
-      <c r="M18" s="5">
-        <f t="shared" si="0"/>
-        <v>23.730708661417324</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="18" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6"/>
       <c r="R18" s="7">
-        <f>L18*M18</f>
-        <v>357.82918965837939</v>
+        <f>SUMPRODUCT(R6:R17,E6:E17)</f>
+        <v>1499.3493725587457</v>
       </c>
       <c r="S18" s="8"/>
       <c r="U18" s="8"/>
@@ -1227,268 +1321,88 @@
       <c r="AG18" s="12"/>
     </row>
     <row r="19" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C19" s="11">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="3">
-        <v>30</v>
-      </c>
-      <c r="K19" s="3">
-        <v>85.22</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="0"/>
-        <v>1.1811023622047245</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="0"/>
-        <v>3.3551181102362206</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="7">
-        <f>L19*M19</f>
-        <v>3.9627379254758517</v>
-      </c>
-      <c r="S19" s="8"/>
+      <c r="R19" s="9"/>
       <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-      <c r="AD19" s="8"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="8"/>
-      <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="8"/>
+      <c r="R20" s="9"/>
       <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="8"/>
-      <c r="AC20" s="8"/>
-      <c r="AD20" s="8"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="8"/>
-      <c r="AG20" s="12"/>
     </row>
     <row r="21" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="C21" s="11"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="8"/>
+      <c r="R21" s="9"/>
       <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="8"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="8"/>
-      <c r="AG21" s="12"/>
-    </row>
-    <row r="22" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="6"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="8"/>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="R22" s="9"/>
       <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="8"/>
-      <c r="AG22" s="12"/>
-    </row>
-    <row r="23" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="6"/>
-      <c r="R23" s="7">
-        <f>SUMPRODUCT(R11:R22,E11:E22)</f>
-        <v>1499.3493725587457</v>
-      </c>
-      <c r="S23" s="8"/>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="R23" s="9"/>
       <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="12"/>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
       <c r="R24" s="9"/>
       <c r="U24" s="8"/>
     </row>
     <row r="25" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
       <c r="R25" s="9"/>
       <c r="U25" s="8"/>
     </row>
     <row r="26" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
       <c r="R26" s="9"/>
       <c r="U26" s="8"/>
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
       <c r="R27" s="9"/>
       <c r="U27" s="8"/>
     </row>
     <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
       <c r="R28" s="9"/>
       <c r="U28" s="8"/>
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
-      <c r="R29" s="9"/>
+      <c r="R29" s="1"/>
       <c r="U29" s="8"/>
     </row>
     <row r="30" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
-      <c r="R30" s="9"/>
-      <c r="U30" s="8"/>
     </row>
     <row r="31" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
-      <c r="R31" s="9"/>
-      <c r="U31" s="8"/>
     </row>
     <row r="32" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
-      <c r="R32" s="9"/>
-      <c r="U32" s="8"/>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
-      <c r="R33" s="9"/>
-      <c r="U33" s="8"/>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="U34" s="8"/>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="F5:M5"/>
+  <mergeCells count="2">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/export/SMB_BOM.xlsx
+++ b/export/SMB_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>Item #</t>
   </si>
@@ -75,18 +75,9 @@
     <t>None</t>
   </si>
   <si>
-    <t>Thickness (in)</t>
-  </si>
-  <si>
-    <t>1/16</t>
-  </si>
-  <si>
     <t>Revision</t>
   </si>
   <si>
-    <t>Full seam weld for watertight seam</t>
-  </si>
-  <si>
     <t>Welding</t>
   </si>
   <si>
@@ -147,7 +138,19 @@
     <t>SM09B</t>
   </si>
   <si>
-    <t>1/32</t>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>20 crs</t>
+  </si>
+  <si>
+    <t>Watertight seam, grind outside flat</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AH38"/>
+  <dimension ref="C1:AG38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,32 +548,31 @@
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="13" width="18.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="35" customWidth="1"/>
-    <col min="18" max="18" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" customWidth="1"/>
-    <col min="34" max="34" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="35" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" customWidth="1"/>
+    <col min="33" max="33" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:32" x14ac:dyDescent="0.25">
       <c r="J4" s="14" t="s">
         <v>14</v>
       </c>
@@ -580,7 +582,7 @@
       </c>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,13 +596,13 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
@@ -614,42 +616,42 @@
       <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
       <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5"/>
-      <c r="AF5"/>
-    </row>
-    <row r="6" spans="3:33" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5"/>
+      <c r="AE5"/>
+    </row>
+    <row r="6" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J6" s="3">
         <v>144.47999999999999</v>
@@ -665,35 +667,35 @@
         <f>K6/25.4</f>
         <v>9.2314960629921252</v>
       </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
       <c r="O6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="7">
-        <f t="shared" ref="R6:R14" si="0">L6*M6</f>
+      <c r="P6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" ref="Q6:Q14" si="0">L6*M6</f>
         <v>52.510494140988278</v>
       </c>
-      <c r="S6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="12"/>
-    </row>
-    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="12"/>
+    </row>
+    <row r="7" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
         <v>2</v>
       </c>
@@ -704,16 +706,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J7" s="3">
         <v>234</v>
@@ -729,35 +731,35 @@
         <f t="shared" si="1"/>
         <v>5.688188976377953</v>
       </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="7">
+      <c r="Q7" s="7">
         <f t="shared" si="0"/>
         <v>52.403000806001621</v>
       </c>
-      <c r="S7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="12"/>
-    </row>
-    <row r="8" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="12"/>
+    </row>
+    <row r="8" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
         <v>3</v>
       </c>
@@ -768,16 +770,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3">
         <v>345.26</v>
@@ -793,35 +795,35 @@
         <f t="shared" si="1"/>
         <v>15.718110236220474</v>
       </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="7">
+      <c r="Q8" s="7">
         <f t="shared" si="0"/>
         <v>213.6549110298221</v>
       </c>
-      <c r="S8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="8"/>
-      <c r="AG8" s="12"/>
-    </row>
-    <row r="9" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="12"/>
+    </row>
+    <row r="9" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
         <v>4</v>
       </c>
@@ -832,16 +834,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" s="13">
         <v>345.26</v>
@@ -857,52 +859,52 @@
         <f t="shared" si="1"/>
         <v>15.718110236220474</v>
       </c>
+      <c r="N9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="7">
+      <c r="Q9" s="7">
         <f t="shared" si="0"/>
         <v>213.6549110298221</v>
       </c>
-      <c r="S9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="8"/>
-      <c r="AG9" s="12"/>
-    </row>
-    <row r="10" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>43</v>
@@ -921,35 +923,35 @@
         <f t="shared" si="1"/>
         <v>23.898031496062995</v>
       </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="7">
+      <c r="Q10" s="7">
         <f t="shared" si="0"/>
         <v>364.34148490296991</v>
       </c>
-      <c r="S10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="12"/>
-    </row>
-    <row r="11" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="12"/>
+    </row>
+    <row r="11" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
         <v>6</v>
       </c>
@@ -960,13 +962,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>43</v>
@@ -985,55 +987,55 @@
         <f t="shared" si="1"/>
         <v>10.081496062992127</v>
       </c>
+      <c r="N11" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="O11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="P11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q11" s="7">
         <f t="shared" si="0"/>
         <v>86.22457498915</v>
       </c>
-      <c r="S11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="12"/>
-    </row>
-    <row r="12" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="12"/>
+    </row>
+    <row r="12" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J12" s="3">
         <v>225.62</v>
@@ -1049,52 +1051,52 @@
         <f t="shared" si="1"/>
         <v>7.7165354330708666</v>
       </c>
+      <c r="N12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="7">
+      <c r="Q12" s="7">
         <f t="shared" si="0"/>
         <v>68.543493086986189</v>
       </c>
-      <c r="S12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="12"/>
-    </row>
-    <row r="13" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="12"/>
+    </row>
+    <row r="13" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>43</v>
@@ -1113,35 +1115,35 @@
         <f t="shared" si="1"/>
         <v>23.730708661417324</v>
       </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="O13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R13" s="7">
+      <c r="Q13" s="7">
         <f t="shared" si="0"/>
         <v>357.82918965837939</v>
       </c>
-      <c r="S13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="8"/>
       <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="12"/>
-    </row>
-    <row r="14" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="12"/>
+    </row>
+    <row r="14" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C14" s="11">
         <v>9</v>
       </c>
@@ -1152,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="J14" s="3">
         <v>30</v>
@@ -1177,35 +1179,35 @@
         <f t="shared" si="1"/>
         <v>3.3551181102362206</v>
       </c>
+      <c r="N14" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="7">
+      <c r="Q14" s="7">
         <f t="shared" si="0"/>
         <v>3.9627379254758517</v>
       </c>
-      <c r="S14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="12"/>
-    </row>
-    <row r="15" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="12"/>
+    </row>
+    <row r="15" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C15" s="11"/>
       <c r="E15" s="4"/>
       <c r="F15" s="2"/>
@@ -1215,27 +1217,26 @@
       <c r="K15" s="3"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="6"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="8"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="8"/>
+      <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="12"/>
-    </row>
-    <row r="16" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="12"/>
+    </row>
+    <row r="16" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C16" s="11"/>
       <c r="E16" s="4"/>
       <c r="F16" s="2"/>
@@ -1245,27 +1246,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="8"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
+      <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="12"/>
-    </row>
-    <row r="17" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="12"/>
+    </row>
+    <row r="17" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="2"/>
@@ -1274,24 +1274,23 @@
       <c r="K17" s="10"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="6"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="8"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="8"/>
+      <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="12"/>
-    </row>
-    <row r="18" spans="3:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="12"/>
+    </row>
+    <row r="18" spans="3:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="2"/>
@@ -1300,83 +1299,82 @@
       <c r="K18" s="10"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="6"/>
-      <c r="R18" s="7">
-        <f>SUMPRODUCT(R6:R17,E6:E17)</f>
+      <c r="Q18" s="7">
+        <f>SUMPRODUCT(Q6:Q17,E6:E17)</f>
         <v>1499.3493725587457</v>
       </c>
-      <c r="S18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="T18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
       <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="12"/>
-    </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="R19" s="9"/>
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="R20" s="9"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="R21" s="9"/>
-      <c r="U21" s="8"/>
-    </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="R22" s="9"/>
-      <c r="U22" s="8"/>
-    </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
-      <c r="R23" s="9"/>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="12"/>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="Q19" s="9"/>
+      <c r="T19" s="8"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="Q20" s="9"/>
+      <c r="T20" s="8"/>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="Q21" s="9"/>
+      <c r="T21" s="8"/>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="Q22" s="9"/>
+      <c r="T22" s="8"/>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="Q23" s="9"/>
+      <c r="T23" s="8"/>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
-      <c r="R24" s="9"/>
-      <c r="U24" s="8"/>
-    </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="Q24" s="9"/>
+      <c r="T24" s="8"/>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
-      <c r="R25" s="9"/>
-      <c r="U25" s="8"/>
-    </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="Q25" s="9"/>
+      <c r="T25" s="8"/>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
-      <c r="R26" s="9"/>
-      <c r="U26" s="8"/>
-    </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="Q26" s="9"/>
+      <c r="T26" s="8"/>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
-      <c r="R27" s="9"/>
-      <c r="U27" s="8"/>
-    </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="Q27" s="9"/>
+      <c r="T27" s="8"/>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
-      <c r="R28" s="9"/>
-      <c r="U28" s="8"/>
-    </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="Q28" s="9"/>
+      <c r="T28" s="8"/>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="U29" s="8"/>
-    </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1"/>
+      <c r="T29" s="8"/>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
